--- a/bioSample/bioSample_1755.xlsx
+++ b/bioSample/bioSample_1755.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">bioSampleNumber </t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">experimentDesign</t>

--- a/bioSample/bioSample_1755.xlsx
+++ b/bioSample/bioSample_1755.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F37D6D-51E3-2241-8A4C-688F2A450D46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD48B256-A925-F44F-9145-61CC57D916EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13960" yWindow="460" windowWidth="33600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="29">
   <si>
     <t>harvestDate</t>
   </si>
@@ -125,6 +125,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -472,7 +473,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E7"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -645,6 +646,9 @@
       <c r="K5">
         <v>1</v>
       </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -680,6 +684,9 @@
       <c r="K6">
         <v>2</v>
       </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -714,6 +721,9 @@
       </c>
       <c r="K7">
         <v>3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">

--- a/bioSample/bioSample_1755.xlsx
+++ b/bioSample/bioSample_1755.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD48B256-A925-F44F-9145-61CC57D916EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA23318D-D5C7-2D4A-B558-2E3A0E0791BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13960" yWindow="460" windowWidth="33600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18020" yWindow="900" windowWidth="33600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="31">
   <si>
     <t>harvestDate</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>TDY1935</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>DMEM</t>
   </si>
 </sst>
 </file>
@@ -470,15 +476,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,22 +507,25 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -536,19 +545,22 @@
         <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2">
-        <v>90</v>
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
       </c>
       <c r="K2">
+        <v>90</v>
+      </c>
+      <c r="L2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -568,19 +580,22 @@
         <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3">
-        <v>90</v>
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
       </c>
       <c r="K3">
+        <v>90</v>
+      </c>
+      <c r="L3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -600,19 +615,22 @@
         <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4">
-        <v>90</v>
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
       </c>
       <c r="K4">
+        <v>90</v>
+      </c>
+      <c r="L4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -635,22 +653,25 @@
         <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5">
-        <v>90</v>
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
       </c>
       <c r="K5">
+        <v>90</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -673,22 +694,25 @@
         <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6">
-        <v>90</v>
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
       </c>
       <c r="K6">
+        <v>90</v>
+      </c>
+      <c r="L6">
         <v>2</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -711,22 +735,25 @@
         <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7">
-        <v>90</v>
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
       </c>
       <c r="K7">
+        <v>90</v>
+      </c>
+      <c r="L7">
         <v>3</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -749,22 +776,25 @@
         <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8">
-        <v>90</v>
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
       </c>
       <c r="K8">
+        <v>90</v>
+      </c>
+      <c r="L8">
         <v>1</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -787,22 +817,25 @@
         <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9">
-        <v>90</v>
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
       </c>
       <c r="K9">
+        <v>90</v>
+      </c>
+      <c r="L9">
         <v>2</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -825,22 +858,25 @@
         <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10">
-        <v>90</v>
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
       </c>
       <c r="K10">
+        <v>90</v>
+      </c>
+      <c r="L10">
         <v>3</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -863,22 +899,25 @@
         <v>23</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11">
-        <v>90</v>
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
       </c>
       <c r="K11">
+        <v>90</v>
+      </c>
+      <c r="L11">
         <v>1</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -901,22 +940,25 @@
         <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12">
-        <v>90</v>
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
       </c>
       <c r="K12">
+        <v>90</v>
+      </c>
+      <c r="L12">
         <v>2</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -939,18 +981,21 @@
         <v>23</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13">
-        <v>90</v>
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
       </c>
       <c r="K13">
+        <v>90</v>
+      </c>
+      <c r="L13">
         <v>3</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>27</v>
       </c>
     </row>
